--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222710.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 10:00:17</t>
+    <t>Informação extraída do SIGBM: 10/12/2022 - 11:27:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222710.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/12/2022 - 11:27:55</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 12:05:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 12:05:24</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 12:30:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 12:30:25</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 12:42:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 12:42:59</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 12:51:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 12:51:21</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 01:00:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 01:00:26</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 01:23:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 01:23:38</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 01:40:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224911.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 01:40:50</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 01:49:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224911.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 01:49:57</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 01:58:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 01:58:17</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 02:13:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 02:13:56</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 02:28:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 02:28:40</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 02:38:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 02:38:35</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 02:47:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 02:47:02</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 02:55:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 02:55:37</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 03:11:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 03:11:33</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 03:33:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 03:33:22</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 03:46:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 03:46:43</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 03:54:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 03:54:47</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 04:05:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 04:05:22</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 04:21:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 04:21:47</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 04:30:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 04:30:43</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 04:40:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224911.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 04:40:30</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 04:49:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224911.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 04:49:00</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 04:57:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 04:57:43</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 05:15:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 05:15:27</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 05:34:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 05:34:19</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 05:45:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 05:45:18</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 05:54:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 05:54:23</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 06:02:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 06:02:47</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 06:22:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 06:22:29</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 06:31:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 06:31:43</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 06:40:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 06:40:31</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 06:50:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 06:50:05</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 06:58:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 06:58:11</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 07:14:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 07:14:59</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 07:32:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 07:32:03</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 07:41:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 07:41:57</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 07:52:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225911.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 07:52:09</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 07:59:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225911.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 07:59:26</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 08:14:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 08:14:27</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 08:25:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 08:25:05</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 08:34:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 08:34:13</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 08:43:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 08:43:34</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 08:51:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 08:51:49</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 09:01:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 09:01:00</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 09:34:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 09:34:07</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 10:00:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 10:00:52</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 10:23:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 10:23:24</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 10:35:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 10:35:28</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 10:44:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 10:44:08</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 10:52:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 10:52:38</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 11:02:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221911.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 11:02:12</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 11:19:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221911.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 11:19:30</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 11:30:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223911.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 11:30:55</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 11:39:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223911.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 11:39:22</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 11:48:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 11:48:12</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 11:57:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 11:57:13</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 12:12:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 12:12:15</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 12:28:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 12:28:32</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 12:37:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 12:37:59</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 12:46:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 12:46:52</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 12:57:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 12:57:59</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 01:11:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 01:11:10</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 01:37:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 01:37:29</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 01:52:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 01:52:22</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 02:00:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 02:00:40</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 02:17:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 02:17:30</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 02:30:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 02:30:09</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 02:38:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 02:38:57</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 02:47:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 02:47:48</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 02:56:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 02:56:46</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 03:15:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 03:15:00</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 03:33:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 03:33:13</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 03:45:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 03:45:22</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 03:54:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 03:54:25</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 04:03:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 04:03:23</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 04:18:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 04:18:33</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 04:27:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 04:27:34</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 04:36:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 04:36:59</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 04:45:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 04:45:39</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 04:54:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 04:54:15</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 05:03:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 05:03:29</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 05:24:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 05:24:01</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 05:33:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 05:33:18</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 05:41:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 05:41:51</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 05:50:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225911.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 05:50:38</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 05:59:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225911.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 05:59:29</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 06:15:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 06:15:18</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 06:27:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 06:27:17</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 06:36:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 06:36:14</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 06:45:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 06:45:03</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 06:53:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 06:53:55</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 07:02:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 07:02:59</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 07:22:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 07:22:10</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 07:33:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 07:33:05</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 07:41:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 07:41:59</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 07:50:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225911.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 07:50:55</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 07:59:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225911.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 07:59:39</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 08:17:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 08:17:41</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 08:30:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 08:30:50</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 08:40:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224911.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 08:40:56</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 08:49:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-11.xlsx
+++ b/sigbm_download_2022-12-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224911.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/12/2022 - 08:49:29</t>
+    <t>Informação extraída do SIGBM: 11/12/2022 - 08:58:27</t>
   </si>
   <si>
     <t>ID Barragem</t>
